--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1699442.074948805</v>
+        <v>1701765.746762673</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742179</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>21.84039882228386</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -677,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>13.00576294050473</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>46.38724422570586</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.170977004479167</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.89241773958567</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,64 +904,64 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>19.72793538656374</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>190.1066023865956</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>78.88188178727695</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,10 +1025,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F8" t="n">
-        <v>185.0333587736945</v>
-      </c>
-      <c r="G8" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1175,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>33.60023339142363</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1221,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>158.4702333299346</v>
+        <v>216.6999729388017</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>110.9174757594851</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1427,10 +1429,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.01647204996061</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>144.5674975588848</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1540,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1610,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1649,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1683,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>56.26539607665198</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1749,7 +1751,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1789,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,28 +1888,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V17" t="n">
-        <v>102.3382270926889</v>
-      </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>33.80371536444981</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1977,13 +1979,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>230.5219311756913</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2041,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2123,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,22 +2168,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>58.01941158629332</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>24.74894597221386</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2260,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2278,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.83685490770582</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2318,14 +2320,14 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>190.3453970742848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>124.906780124857</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -2451,16 +2453,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2476,67 +2478,67 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,58 +2569,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2646,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>169.2003938561629</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>124.906780124857</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,61 +2797,61 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>67.35888363780772</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,14 +3028,14 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>3.265316057196634</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>124.9970695510301</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>82.48468417783825</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3241,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3278,58 +3280,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -3405,13 +3407,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>3.55522121023865</v>
       </c>
     </row>
     <row r="37">
@@ -3421,64 +3423,64 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,14 +3502,14 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
@@ -3545,28 +3547,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>90.16066412513263</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>19.23097888973112</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3703,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3749,7 +3751,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>94.41048699370604</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3819,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>137.0062620734511</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3867,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>12.94771755361639</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4031,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>200.3360962888297</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4068,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>10.27068583523948</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
@@ -4122,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4147,58 +4149,58 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.79932185354236</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="C2" t="n">
-        <v>41.79932185354236</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="D2" t="n">
-        <v>41.79932185354236</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="E2" t="n">
-        <v>41.79932185354236</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="F2" t="n">
-        <v>19.73831294214452</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="G2" t="n">
-        <v>4.281002320795981</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>4.281002320795981</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
-        <v>4.281002320795981</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064624</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>57.25840604064624</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M2" t="n">
         <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199488</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.958500671572</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>95.85238145955222</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T2" t="n">
-        <v>95.85238145955222</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U2" t="n">
-        <v>95.85238145955222</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V2" t="n">
-        <v>95.85238145955222</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="W2" t="n">
-        <v>95.85238145955222</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="X2" t="n">
-        <v>95.85238145955222</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.79932185354236</v>
+        <v>92.8068625444412</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.08819457959156</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="C3" t="n">
-        <v>59.08819457959156</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="D3" t="n">
-        <v>59.08819457959156</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="E3" t="n">
-        <v>59.08819457959156</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="F3" t="n">
-        <v>59.08819457959156</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959156</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
-        <v>59.08819457959156</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581695</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064624</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064624</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064624</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
-        <v>57.25840604064624</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199488</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>59.08819457959156</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>59.08819457959156</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>59.08819457959156</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>59.08819457959156</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>59.08819457959156</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y3" t="n">
-        <v>59.08819457959156</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="D4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="E4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="F4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="G4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="H4" t="n">
-        <v>134.8815577205762</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="I4" t="n">
-        <v>80.8284981145663</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="J4" t="n">
         <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
         <v>31.59512732850896</v>
@@ -4504,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>738.7078125165641</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="C5" t="n">
-        <v>738.7078125165641</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="D5" t="n">
-        <v>738.7078125165641</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="E5" t="n">
-        <v>718.7806050553886</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="F5" t="n">
-        <v>475.3318284112885</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4595,22 +4597,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>738.7078125165641</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X5" t="n">
-        <v>738.7078125165641</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="Y5" t="n">
-        <v>738.7078125165641</v>
+        <v>285.1327311248648</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>521.2549444941228</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C6" t="n">
-        <v>521.2549444941228</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>372.3205348328715</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>213.083079827416</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>133.4044113554191</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4650,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4671,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4702815141908</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="X6" t="n">
-        <v>689.4702815141908</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y6" t="n">
-        <v>689.4702815141908</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="7">
@@ -4747,28 +4749,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477.1596022224361</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="C8" t="n">
-        <v>477.1596022224361</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="D8" t="n">
-        <v>477.1596022224361</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E8" t="n">
-        <v>233.7108255783361</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>281.7454097505996</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
         <v>19.28114311021272</v>
@@ -4884,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>373.5759998482816</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>373.5759998482816</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>373.5759998482816</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C11" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5075,16 +5077,16 @@
         <v>720.6083788665362</v>
       </c>
       <c r="V11" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W11" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>756.2056553051034</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C12" t="n">
-        <v>581.7526260239764</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D12" t="n">
-        <v>432.8182163627251</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E12" t="n">
-        <v>273.5807613572696</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F12" t="n">
-        <v>248.3115976704407</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G12" t="n">
-        <v>109.5807722530562</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>341.255911560952</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>341.255911560952</v>
       </c>
       <c r="X12" t="n">
-        <v>756.2056553051034</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="Y12" t="n">
-        <v>756.2056553051034</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="13">
@@ -5188,13 +5190,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J13" t="n">
         <v>41.77557929797318</v>
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F14" t="n">
-        <v>730.8505943024719</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
         <v>31.35113235729608</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E15" t="n">
         <v>19.28114311021272</v>
@@ -5364,13 +5366,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5379,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>705.7335281915883</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>470.5814199598456</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W15" t="n">
-        <v>227.1326433157456</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5625,10 +5627,10 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W18" t="n">
         <v>19.28114311021272</v>
@@ -5689,10 +5691,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R19" t="n">
         <v>19.28114311021272</v>
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C20" t="n">
         <v>262.7299197543128</v>
@@ -5735,13 +5737,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5750,7 +5752,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>588.0815197256143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>588.0815197256143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>588.0815197256143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>428.8440647201588</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>282.3095067470438</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>946.3215033461793</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6072,16 +6074,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>487.8483949674443</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>23.90796037760316</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>145.4496078827955</v>
       </c>
     </row>
     <row r="25">
@@ -6121,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
         <v>19.28114311021272</v>
@@ -6184,13 +6186,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>691.978137319923</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>691.978137319923</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>691.978137319923</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V27" t="n">
-        <v>456.8260290881803</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W27" t="n">
-        <v>456.8260290881803</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>456.8260290881803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>69.84447166430675</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6543,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>621.4310051123648</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="W30" t="n">
-        <v>485.4562706347935</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="X30" t="n">
-        <v>277.6047704292607</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="Y30" t="n">
-        <v>69.84447166430675</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="31">
@@ -6643,10 +6645,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>343.8760884571613</v>
+      </c>
+      <c r="C32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>960.7588564629629</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>194.4883050441255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6789,40 +6791,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W33" t="n">
-        <v>446.0215048700907</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X33" t="n">
-        <v>446.0215048700907</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y33" t="n">
-        <v>362.7036420641935</v>
+        <v>145.5408093233744</v>
       </c>
     </row>
     <row r="34">
@@ -6877,22 +6879,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>962.2293816994886</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C35" t="n">
-        <v>962.2293816994886</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D35" t="n">
-        <v>962.2293816994886</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E35" t="n">
-        <v>962.2293816994886</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F35" t="n">
-        <v>718.7806050553886</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W35" t="n">
-        <v>962.2293816994886</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X35" t="n">
-        <v>962.2293816994886</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y35" t="n">
-        <v>962.2293816994886</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U36" t="n">
-        <v>360.2295980564601</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V36" t="n">
-        <v>125.0774898247174</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W36" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="37">
@@ -7126,19 +7128,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
         <v>19.28114311021272</v>
@@ -7193,25 +7195,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
         <v>262.7299197543128</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>872.9857776064619</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>872.9857776064619</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>670.7991829652278</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="U39" t="n">
-        <v>670.7991829652278</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V39" t="n">
-        <v>435.6470747334852</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W39" t="n">
-        <v>435.6470747334852</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>227.7955745279523</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7436,25 +7438,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U41" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V41" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W41" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>157.6713068207694</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7494,13 +7496,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M42" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O42" t="n">
         <v>712.019119383956</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W42" t="n">
-        <v>777.5613083818946</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X42" t="n">
-        <v>569.7098081763618</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y42" t="n">
-        <v>361.9495094114078</v>
+        <v>325.8866438408374</v>
       </c>
     </row>
     <row r="43">
@@ -7594,19 +7596,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7679,19 +7681,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="G45" t="n">
         <v>20.03527576299844</v>
@@ -7734,7 +7736,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
         <v>725.4530095217538</v>
@@ -7749,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>934.7112791079849</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U45" t="n">
-        <v>706.487660844374</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V45" t="n">
-        <v>471.3355526126313</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W45" t="n">
-        <v>227.8867759685313</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X45" t="n">
-        <v>20.03527576299844</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>30.40970589960398</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7846,10 +7848,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>281.6966398529821</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8061,7 +8063,7 @@
         <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>189.9047864055835</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -8070,13 +8072,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>193.9466510701538</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
         <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,10 +8309,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,10 +8455,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8769,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
@@ -8781,13 +8783,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,16 +9014,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9720,19 +9722,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>185.4193833999402</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9972,7 +9974,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10437,16 +10439,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10665,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,16 +11144,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M42" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11382,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N45" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -23267,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23315,10 +23317,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>136.9555830739709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23337,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>120.0527403434233</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>88.23308959054049</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>57.07350359897357</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23498,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23571,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>110.2677875732154</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23637,7 +23639,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23677,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23750,7 +23752,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,28 +23776,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>335.9273853140192</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23865,13 +23867,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>21.17305198522826</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23929,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>280.8531039918463</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,22 +24056,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>79.3241055769173</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>226.9460371887057</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24148,10 +24150,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24166,13 +24168,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.32518834398857</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24206,13 +24208,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>240.1525967516569</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>195.8925415817688</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>41.62640352501036</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24339,16 +24341,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,10 +24457,10 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24497,7 +24499,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24534,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>2.482777247674932</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24582,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>126.7882030360626</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24661,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24683,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24734,10 +24736,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24748,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,13 +24761,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>122.6508037197626</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24804,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>158.5824984431671</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>284.9381847551875</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24962,13 +24964,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>146.6038018839531</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>41.53611409883725</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>123.1980115994661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25117,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25129,13 +25131,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25166,13 +25168,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25214,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>347.4314726443769</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25293,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>202.1274745670657</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25366,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25433,28 +25435,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.997170027510506</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>180.9337498050905</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25591,10 +25593,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25637,7 +25639,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>156.9351659141304</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>35.70223691486467</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25755,22 +25757,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>238.7472656073032</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25919,16 +25921,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>51.00955661900684</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25956,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>127.0728313279712</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25989,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>171.1123110561968</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>365791.6593492187</v>
+        <v>365791.6593492186</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>365791.6593492188</v>
+        <v>365791.6593492187</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>365791.6593492188</v>
+        <v>365791.6593492187</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>365791.6593492187</v>
+        <v>365791.6593492188</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>365791.6593492187</v>
+        <v>365791.6593492188</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>365791.6593492187</v>
+        <v>365791.6593492188</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
         <v>249241.0087969986</v>
       </c>
       <c r="F2" t="n">
-        <v>249241.0087969986</v>
+        <v>249241.0087969985</v>
       </c>
       <c r="G2" t="n">
         <v>249241.0087969986</v>
@@ -26353,7 +26355,7 @@
         <v>249241.0087969986</v>
       </c>
       <c r="P2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26424,19 +26426,19 @@
         <v>312595.3744187171</v>
       </c>
       <c r="E4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="F4" t="n">
         <v>33649.84678425771</v>
       </c>
       <c r="G4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="H4" t="n">
         <v>33649.84678425771</v>
       </c>
       <c r="I4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
         <v>33649.84678425771</v>
@@ -26457,7 +26459,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="P4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
     </row>
     <row r="5">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>206895.6852338484</v>
+        <v>206895.6852338487</v>
       </c>
       <c r="C6" t="n">
-        <v>194328.3620290655</v>
+        <v>194328.3620290654</v>
       </c>
       <c r="D6" t="n">
-        <v>254904.684215734</v>
+        <v>254904.6842157337</v>
       </c>
       <c r="E6" t="n">
         <v>200937.4932489792</v>
@@ -26555,7 +26557,7 @@
         <v>200937.4932489792</v>
       </c>
       <c r="N6" t="n">
-        <v>200937.4932489793</v>
+        <v>200937.4932489792</v>
       </c>
       <c r="O6" t="n">
         <v>200937.4932489792</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
         <v>187.5017598677093</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27388,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>385.0356469194276</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,10 +27399,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>96.35658893119992</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>155.5075405762956</v>
@@ -27433,10 +27435,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>314.7464955296302</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.7254096461038</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>111.257836229695</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
-        <v>35.88410384146532</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269337</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>153.7774844691157</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27552,10 +27554,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.0561955029604</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9379459173085</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>39.84665110672302</v>
@@ -27576,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>173.4009736375838</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27594,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.6251143138782</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>362.2024346856981</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27667,19 +27669,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>179.6244982918734</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>66.18733060610693</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>154.8758545618492</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27819,7 +27821,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>221.8426869680169</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27895,16 +27897,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>189.4956161727077</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -27941,7 +27943,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27977,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>74.33035381949071</v>
+        <v>16.10061421062358</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28026,7 +28028,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>51.30969674795443</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
-        <v>51.35040662570938</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>51.35040662570938</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,10 +34947,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,10 +35029,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
@@ -35501,13 +35503,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,16 +35734,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36674,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>43.28534947792188</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37157,16 +37159,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37634,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M42" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38023,7 +38025,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38102,10 +38104,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N45" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1701765.746762673</v>
+        <v>1632914.450321236</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5631129.67821946</v>
+        <v>5631129.678219459</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>13.00576294050473</v>
+        <v>3.0150637259599</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>47.13383555196372</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,52 +837,52 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22.26949182588285</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3.89241773958567</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>238.8022356950655</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,22 +980,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>97.48188567889162</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>22.90612036710875</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,16 +1180,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>33.60023339142363</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>216.6999729388017</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>200.6918045188872</v>
       </c>
     </row>
     <row r="10">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>241.0142888776591</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1414,22 +1414,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>144.5674975588848</v>
+        <v>155.9724083864673</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1660,10 +1660,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>72.47049842454879</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>56.26539607665198</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>145.5147652547678</v>
       </c>
       <c r="W15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1764,64 +1764,64 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>241.0142888776591</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,28 +1888,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>33.80371536444981</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>17.5640349025449</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -1982,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>230.5219311756913</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2043,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>84.41978777916125</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -2219,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>223.6440904579956</v>
       </c>
       <c r="W21" t="n">
-        <v>24.74894597221386</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>11.19305615617957</v>
+        <v>19.72793538656374</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>124.906780124857</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2408,19 +2408,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>33.02073619007383</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>208.2638363878125</v>
       </c>
       <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>64.38401073897953</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>124.906780124857</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2791,23 +2791,23 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>67.35888363780772</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>173.8161376545187</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>62.4162677022923</v>
       </c>
     </row>
     <row r="33">
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>124.9970695510301</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>98.06539486379691</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.55522121023865</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3547,31 +3547,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>97.76646051984092</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3629,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>19.23097888973112</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>241.0142888776591</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>137.0062620734511</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>77.92691371295918</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3976,70 +3976,70 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="V44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>19.7279353865638</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>10.27068583523948</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="46">
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.8068625444412</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="C2" t="n">
-        <v>92.8068625444412</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="D2" t="n">
-        <v>92.8068625444412</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="E2" t="n">
-        <v>92.8068625444412</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="F2" t="n">
-        <v>85.86136179523773</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
@@ -4333,10 +4333,10 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
         <v>108.0953086000985</v>
@@ -4351,31 +4351,31 @@
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="U2" t="n">
-        <v>105.9439968277793</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="V2" t="n">
-        <v>92.8068625444412</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="W2" t="n">
-        <v>92.8068625444412</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="X2" t="n">
-        <v>92.8068625444412</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="Y2" t="n">
-        <v>92.8068625444412</v>
+        <v>38.75380293843134</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C3" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D3" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E3" t="n">
-        <v>113.1412541856014</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F3" t="n">
-        <v>59.08819457959154</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959154</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>108.0953086000985</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
-        <v>108.0953086000985</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="N3" t="n">
         <v>108.0953086000985</v>
@@ -4427,34 +4427,34 @@
         <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="V3" t="n">
-        <v>214.050116039799</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W3" t="n">
-        <v>214.050116039799</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X3" t="n">
-        <v>214.050116039799</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.050116039799</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.82849811456629</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="C4" t="n">
-        <v>80.82849811456629</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="D4" t="n">
-        <v>80.82849811456629</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="E4" t="n">
-        <v>80.82849811456629</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="F4" t="n">
-        <v>80.82849811456629</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="G4" t="n">
-        <v>80.82849811456629</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="H4" t="n">
-        <v>80.82849811456629</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4512,28 +4512,28 @@
         <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>134.8815577205762</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>134.8815577205762</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>134.8815577205762</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>134.8815577205762</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>80.82849811456629</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.82849811456629</v>
+        <v>84.76023320505688</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.1327311248648</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C5" t="n">
-        <v>285.1327311248648</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D5" t="n">
-        <v>285.1327311248648</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="E5" t="n">
-        <v>285.1327311248648</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="F5" t="n">
-        <v>278.1872303756613</v>
+        <v>485.167420504237</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W5" t="n">
-        <v>477.1596022224361</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X5" t="n">
-        <v>285.1327311248648</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y5" t="n">
-        <v>285.1327311248648</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817.1412885554689</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>118.5018269537981</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>817.1412885554689</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>817.1412885554689</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>817.1412885554689</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>817.1412885554689</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y6" t="n">
-        <v>817.1412885554689</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>281.7454097505996</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C8" t="n">
-        <v>281.7454097505996</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D8" t="n">
-        <v>281.7454097505996</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E8" t="n">
-        <v>281.7454097505996</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>267.0905363345836</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>768.6429630387997</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>768.6429630387997</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V8" t="n">
-        <v>768.6429630387997</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W8" t="n">
-        <v>768.6429630387997</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X8" t="n">
-        <v>525.1941863946997</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y8" t="n">
-        <v>281.7454097505996</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>593.1228240270457</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>470.5814199598456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>761.3381610471138</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C11" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C12" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D12" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E12" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F12" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G12" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
         <v>304.2053859195205</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>487.2836868729568</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V12" t="n">
-        <v>341.255911560952</v>
+        <v>376.0990553467335</v>
       </c>
       <c r="W12" t="n">
-        <v>341.255911560952</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="X12" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y12" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5232,19 +5232,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>518.2486856454962</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C14" t="n">
-        <v>518.2486856454962</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D14" t="n">
-        <v>274.7999090013961</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E14" t="n">
-        <v>274.7999090013961</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
         <v>31.35113235729608</v>
@@ -5308,22 +5308,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>518.2486856454962</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="V14" t="n">
-        <v>518.2486856454962</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W14" t="n">
-        <v>518.2486856454962</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X14" t="n">
-        <v>518.2486856454962</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y14" t="n">
-        <v>518.2486856454962</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>327.4530077769195</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C15" t="n">
-        <v>327.4530077769195</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D15" t="n">
-        <v>178.5185981156682</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G15" t="n">
         <v>19.28114311021272</v>
@@ -5360,19 +5360,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5381,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>627.7355178317791</v>
+        <v>817.0725441421839</v>
       </c>
       <c r="W15" t="n">
-        <v>384.2867411876791</v>
+        <v>573.6237674980839</v>
       </c>
       <c r="X15" t="n">
-        <v>384.2867411876791</v>
+        <v>365.7722672925511</v>
       </c>
       <c r="Y15" t="n">
-        <v>384.2867411876791</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="16">
@@ -5469,19 +5469,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>475.3318284112885</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C17" t="n">
-        <v>475.3318284112885</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D17" t="n">
-        <v>475.3318284112885</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E17" t="n">
-        <v>231.8830517671884</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F17" t="n">
-        <v>231.8830517671884</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>752.9257720901863</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V17" t="n">
-        <v>509.4769954460863</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W17" t="n">
-        <v>509.4769954460863</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X17" t="n">
-        <v>475.3318284112885</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y17" t="n">
-        <v>475.3318284112885</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>332.4649978087242</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G18" t="n">
         <v>19.28114311021272</v>
@@ -5600,46 +5600,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>946.3157061141262</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>946.3157061141262</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>744.1291114728923</v>
       </c>
       <c r="U18" t="n">
-        <v>487.2836868729568</v>
+        <v>744.1291114728923</v>
       </c>
       <c r="V18" t="n">
-        <v>252.1315786412141</v>
+        <v>744.1291114728923</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>500.6803348287922</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>500.6803348287922</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>500.6803348287922</v>
       </c>
     </row>
     <row r="19">
@@ -5691,22 +5691,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>348.0024326625565</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5752,7 +5752,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V20" t="n">
-        <v>348.0024326625565</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W20" t="n">
-        <v>348.0024326625565</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X20" t="n">
-        <v>348.0024326625565</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y20" t="n">
-        <v>348.0024326625565</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>621.8469951458151</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>252.1315786412141</v>
+        <v>535.9674391946592</v>
       </c>
       <c r="W21" t="n">
-        <v>227.1326433157456</v>
+        <v>535.9674391946592</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>535.9674391946592</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>328.2071404297052</v>
       </c>
     </row>
     <row r="22">
@@ -5931,22 +5931,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>930.7028765307637</v>
       </c>
       <c r="U24" t="n">
-        <v>588.4532163200711</v>
+        <v>930.7028765307637</v>
       </c>
       <c r="V24" t="n">
-        <v>353.3011080883284</v>
+        <v>695.5507682990209</v>
       </c>
       <c r="W24" t="n">
-        <v>353.3011080883284</v>
+        <v>695.5507682990209</v>
       </c>
       <c r="X24" t="n">
-        <v>145.4496078827955</v>
+        <v>487.6992680934881</v>
       </c>
       <c r="Y24" t="n">
-        <v>145.4496078827955</v>
+        <v>279.9389693285341</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
         <v>19.28114311021272</v>
@@ -6186,13 +6186,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>467.067986854209</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6256,22 +6256,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>710.516763498309</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>710.516763498309</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X26" t="n">
-        <v>467.067986854209</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>899.0228012288387</v>
       </c>
       <c r="U27" t="n">
-        <v>588.4532163200711</v>
+        <v>670.7991829652278</v>
       </c>
       <c r="V27" t="n">
-        <v>353.3011080883284</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>178.5185981156682</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C30" t="n">
-        <v>178.5185981156682</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,46 +6548,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>621.4310051123648</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>386.2788968806221</v>
+        <v>788.4852992939507</v>
       </c>
       <c r="W30" t="n">
-        <v>386.2788968806221</v>
+        <v>545.0365226498506</v>
       </c>
       <c r="X30" t="n">
-        <v>386.2788968806221</v>
+        <v>337.1850224443177</v>
       </c>
       <c r="Y30" t="n">
-        <v>178.5185981156682</v>
+        <v>337.1850224443177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6645,28 +6645,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>343.8760884571613</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D32" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E32" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="F32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6730,22 +6730,22 @@
         <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>587.3248651012614</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U32" t="n">
-        <v>587.3248651012614</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V32" t="n">
-        <v>587.3248651012614</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W32" t="n">
-        <v>587.3248651012614</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X32" t="n">
-        <v>587.3248651012614</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y32" t="n">
-        <v>343.8760884571613</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6791,7 +6791,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>353.3011080883284</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>353.3011080883284</v>
+        <v>865.0012011027605</v>
       </c>
       <c r="X33" t="n">
-        <v>353.3011080883284</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="Y33" t="n">
-        <v>145.5408093233744</v>
+        <v>657.1497008972277</v>
       </c>
     </row>
     <row r="34">
@@ -6879,22 +6879,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>72.23626279480629</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>315.6850394389064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>315.6850394389064</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7022,16 +7022,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>432.4774131586771</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V36" t="n">
-        <v>197.3253049269343</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W36" t="n">
-        <v>197.3253049269343</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X36" t="n">
-        <v>197.3253049269343</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7128,19 +7128,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C38" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D38" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E38" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="F38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>118.0351436353046</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7265,7 +7265,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>670.0450503124422</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>670.0450503124422</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>434.8929420806995</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>118.0351436353046</v>
       </c>
     </row>
     <row r="40">
@@ -7353,10 +7353,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
         <v>19.28114311021272</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>812.6742080953335</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U41" t="n">
-        <v>569.2254314512334</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V41" t="n">
-        <v>569.2254314512334</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W41" t="n">
-        <v>325.7766548071333</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.6713068207694</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E42" t="n">
         <v>19.28114311021272</v>
@@ -7496,7 +7496,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
         <v>473.4149733950735</v>
@@ -7520,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>533.6469426057913</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>533.6469426057913</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>533.6469426057913</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y42" t="n">
-        <v>325.8866438408374</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7596,25 +7596,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7678,22 +7678,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
         <v>964.0571555106362</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>446.0215048700907</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>238.1700046645579</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7836,16 +7836,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
         <v>19.28114311021272</v>
@@ -7981,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
         <v>282.9255926065406</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>189.9047864055835</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
         <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8312,10 +8312,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>184.6294155606472</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -9008,10 +9008,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
@@ -9020,10 +9020,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9248,7 +9248,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9257,13 +9257,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -9494,13 +9494,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>382.1386950879875</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10196,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,10 +10439,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O33" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10670,19 +10670,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>356.2611315939937</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10913,10 +10913,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O39" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11144,10 +11144,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11378,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>113.6687527430239</v>
@@ -23272,10 +23272,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23302,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>88.23308959054049</v>
+        <v>76.828178762958</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.07350359897357</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23500,13 +23500,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23515,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.6253511395826</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>130.418315862507</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23573,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>110.2677875732154</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23633,16 +23633,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>87.28582189465749</v>
       </c>
       <c r="W15" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>140.9160811946027</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,28 +23776,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>335.9273853140192</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23825,7 +23825,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.59379925009823</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,10 +23870,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>21.17305198522826</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23931,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23949,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23971,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>280.8531039918463</v>
+        <v>362.0075757138109</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24053,10 +24053,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,16 +24107,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>9.15649669142968</v>
       </c>
       <c r="W21" t="n">
-        <v>226.9460371887057</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24171,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24226,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>240.1525967516569</v>
+        <v>231.6177175212728</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>41.62640352501036</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24296,19 +24296,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,10 +24335,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>167.1439925047478</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,19 +24445,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>173.6665336844493</v>
       </c>
       <c r="F26" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>135.7807179558421</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>126.7882030360626</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,19 +24733,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>49.05096647893927</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>158.5824984431671</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>58.98444949490658</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24855,7 +24855,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24919,22 +24919,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>284.9381847551875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24970,7 +24970,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>323.8216709537613</v>
       </c>
     </row>
     <row r="33">
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>41.53611409883725</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25046,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>153.6295882971227</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25119,10 +25119,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>362.8771690273874</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>202.1274745670657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25332,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25396,16 +25396,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>74.94203846847482</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25517,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>180.9337498050905</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25593,13 +25593,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25636,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25675,13 +25675,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>10.33136403017744</v>
@@ -25690,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>307.3148329761767</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>35.70223691486467</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25760,22 +25760,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>127.8460714905183</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25885,7 +25885,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25918,16 +25918,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>329.5130333308492</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25958,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>127.0728313279712</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="46">
@@ -26076,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>365791.6593492186</v>
+        <v>365791.6593492187</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>365791.6593492188</v>
+        <v>365791.6593492186</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>365791.6593492188</v>
+        <v>365791.6593492187</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>365791.6593492188</v>
+        <v>365791.6593492187</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>365791.6593492188</v>
+        <v>365791.6593492186</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>365791.6593492187</v>
+        <v>365791.6593492186</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982125</v>
@@ -26325,7 +26325,7 @@
         <v>249241.0087969986</v>
       </c>
       <c r="F2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
       <c r="G2" t="n">
         <v>249241.0087969986</v>
@@ -26459,7 +26459,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="P4" t="n">
-        <v>33649.84678425771</v>
+        <v>33649.8467842577</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>206895.6852338487</v>
+        <v>206895.6852338483</v>
       </c>
       <c r="C6" t="n">
-        <v>194328.3620290654</v>
+        <v>194328.3620290659</v>
       </c>
       <c r="D6" t="n">
         <v>254904.6842157337</v>
       </c>
       <c r="E6" t="n">
-        <v>200937.4932489792</v>
+        <v>188719.4826289387</v>
       </c>
       <c r="F6" t="n">
-        <v>200937.4932489792</v>
+        <v>188719.4826289387</v>
       </c>
       <c r="G6" t="n">
-        <v>200937.4932489792</v>
+        <v>188719.4826289387</v>
       </c>
       <c r="H6" t="n">
-        <v>200937.4932489792</v>
+        <v>188719.4826289387</v>
       </c>
       <c r="I6" t="n">
-        <v>200937.4932489792</v>
+        <v>188719.4826289387</v>
       </c>
       <c r="J6" t="n">
-        <v>186936.2611086999</v>
+        <v>174718.2504886595</v>
       </c>
       <c r="K6" t="n">
-        <v>152680.5403153466</v>
+        <v>140462.5296953061</v>
       </c>
       <c r="L6" t="n">
-        <v>200937.4932489792</v>
+        <v>188719.4826289387</v>
       </c>
       <c r="M6" t="n">
-        <v>200937.4932489792</v>
+        <v>188719.4826289387</v>
       </c>
       <c r="N6" t="n">
-        <v>200937.4932489792</v>
+        <v>188719.4826289387</v>
       </c>
       <c r="O6" t="n">
-        <v>200937.4932489792</v>
+        <v>188719.4826289387</v>
       </c>
       <c r="P6" t="n">
-        <v>200937.4932489792</v>
+        <v>188719.4826289387</v>
       </c>
     </row>
   </sheetData>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>156.9633605604562</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,22 +27423,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
         <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
-        <v>197.8331238978867</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>314.7464955296302</v>
+        <v>324.737194744175</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,10 +27466,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>111.257836229695</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>91.55668338343412</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27481,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>53.02399860067941</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27517,10 +27517,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>179.2880581394755</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>198.1824541509698</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>113.7342920886781</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27557,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>129.2885653617898</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>173.4009736375838</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27596,13 +27596,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>198.6251143138782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>176.5005018200695</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27669,19 +27669,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>179.6244982918734</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27700,22 +27700,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>14.75355855760485</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>154.8758545618492</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27833,7 +27833,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>143.9416082994493</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>392.3966171480263</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>189.4956161727077</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27943,19 +27943,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27991,16 +27991,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>16.10061421062358</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>4.99089125841715</v>
       </c>
     </row>
     <row r="10">
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>38.23792762219048</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>51.35040662570935</v>
-      </c>
-      <c r="M2" t="n">
-        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
         <v>53.51252900994975</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="N3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="L3" t="n">
-        <v>51.35040662570935</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34947,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35032,10 +35032,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35728,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
@@ -35740,10 +35740,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35977,13 +35977,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>217.7067518141195</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37633,10 +37633,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37864,10 +37864,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -38098,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
